--- a/Book1-pix.xlsx
+++ b/Book1-pix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Negative</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>https://neilpatel.com/blog/improve-google-rankings-without-getting-penalized/#step_6</t>
+  </si>
+  <si>
+    <t>https://www.searchenginewatch.com/2019/04/12/seo-friendly-image-alt-text/</t>
+  </si>
+  <si>
+    <t>https://backlinko.com/google-keyword-planner</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,6 +614,16 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -618,8 +634,10 @@
     <hyperlink ref="C9" r:id="rId6"/>
     <hyperlink ref="C10" r:id="rId7"/>
     <hyperlink ref="C11" r:id="rId8" location="step_6" display="https://neilpatel.com/blog/improve-google-rankings-without-getting-penalized/ - step_6"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>